--- a/training/output/LRSADTLM/P/P1_P0.xlsx
+++ b/training/output/LRSADTLM/P/P1_P0.xlsx
@@ -447,98 +447,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9758771929824561</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="B2" t="n">
-        <v>1.582425954049094</v>
+        <v>1.574006082718832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B3" t="n">
-        <v>1.488045615062379</v>
+        <v>1.478538820618077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B4" t="n">
-        <v>1.447205104325947</v>
+        <v>1.442703420655769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B5" t="n">
-        <v>1.418610403412267</v>
+        <v>1.416630790944685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B6" t="n">
-        <v>1.420060615790518</v>
+        <v>1.424095379678826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9923245614035088</v>
       </c>
       <c r="B7" t="n">
-        <v>1.421842418218914</v>
+        <v>1.425214336629499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B8" t="n">
-        <v>1.423932947610554</v>
+        <v>1.420087601009168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1.419216306586015</v>
+        <v>1.413112872525265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.993421052631579</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1.405562591134456</v>
+        <v>1.402499341128165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B11" t="n">
-        <v>1.436043293852555</v>
+        <v>1.438963898441248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B12" t="n">
-        <v>1.425857809551975</v>
+        <v>1.427637997426485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9967105263157895</v>
       </c>
       <c r="B13" t="n">
-        <v>1.416146928803963</v>
+        <v>1.42193217235699</v>
       </c>
     </row>
     <row r="14">
@@ -546,23 +546,23 @@
         <v>0.9989035087719298</v>
       </c>
       <c r="B14" t="n">
-        <v>1.418318689915172</v>
+        <v>1.414013182907774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B15" t="n">
-        <v>1.402776672129046</v>
+        <v>1.403779360285976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1.40516906244713</v>
+        <v>1.403632383597525</v>
       </c>
     </row>
     <row r="17">
@@ -570,15 +570,15 @@
         <v>0.9989035087719298</v>
       </c>
       <c r="B17" t="n">
-        <v>1.394242351515251</v>
+        <v>1.394129617172375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B18" t="n">
-        <v>1.398631279928642</v>
+        <v>1.401274359017088</v>
       </c>
     </row>
     <row r="19">
@@ -586,39 +586,39 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1.402975732820076</v>
+        <v>1.406697179141797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9945175438596491</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1.446528307178564</v>
+        <v>1.441616453622517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9967105263157895</v>
       </c>
       <c r="B21" t="n">
-        <v>1.418732969384444</v>
+        <v>1.430525120935942</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1.412254174550374</v>
+        <v>1.415865856304503</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B23" t="n">
-        <v>1.396553024911044</v>
+        <v>1.398001781681128</v>
       </c>
     </row>
     <row r="24">
@@ -626,15 +626,15 @@
         <v>0.9945175438596491</v>
       </c>
       <c r="B24" t="n">
-        <v>1.402432243029277</v>
+        <v>1.40351052451552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1.409453329287077</v>
+        <v>1.409624643493117</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1.395167936358535</v>
+        <v>1.394967261113619</v>
       </c>
     </row>
     <row r="27">
@@ -650,31 +650,31 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1.396969968812507</v>
+        <v>1.394896323220772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1.395106261236626</v>
+        <v>1.396678836722123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1.393136285898978</v>
+        <v>1.393749105302911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1.396948182791994</v>
+        <v>1.397041981680351</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1.394493163677684</v>
+        <v>1.393936414467661</v>
       </c>
     </row>
     <row r="32">
@@ -690,39 +690,39 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1.403221494273136</v>
+        <v>1.402102418113173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9978070175438597</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1.396334629309805</v>
+        <v>1.395708082015054</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1.399677174133167</v>
+        <v>1.399556394208942</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1.402438651051438</v>
+        <v>1.40878154729542</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B36" t="n">
-        <v>1.397604210334912</v>
+        <v>1.400851471382275</v>
       </c>
     </row>
     <row r="37">
@@ -730,15 +730,15 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1.394316959799382</v>
+        <v>1.398780463034647</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1.392787763946935</v>
+        <v>1.395456291081613</v>
       </c>
     </row>
     <row r="39">
@@ -746,15 +746,15 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>1.39053157547064</v>
+        <v>1.39139477621045</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1.392860510893035</v>
+        <v>1.392814090377406</v>
       </c>
     </row>
     <row r="41">
@@ -762,15 +762,15 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1.389421789269698</v>
+        <v>1.389450255193208</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1.390855642787197</v>
+        <v>1.390509565671285</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1.391383411591513</v>
+        <v>1.391929741491351</v>
       </c>
     </row>
     <row r="44">
@@ -786,23 +786,23 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1.391701144084596</v>
+        <v>1.39094470885762</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1.389786163965861</v>
+        <v>1.38974090208087</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B46" t="n">
-        <v>1.390316731051395</v>
+        <v>1.390663040311713</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1.391010378536425</v>
+        <v>1.391755143801371</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1.39209300593326</v>
+        <v>1.390716759782088</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1.394010591925236</v>
+        <v>1.391315874300505</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1.394070451719719</v>
+        <v>1.392489535766736</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1.391843005230552</v>
+        <v>1.392003312445524</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1.396327209054378</v>
+        <v>1.393370172433686</v>
       </c>
     </row>
     <row r="53">
@@ -858,159 +858,159 @@
         <v>0.9989035087719298</v>
       </c>
       <c r="B53" t="n">
-        <v>1.393281424254702</v>
+        <v>1.390404082181161</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B54" t="n">
-        <v>1.398956175436053</v>
+        <v>1.399242549611811</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1.418541479528996</v>
+        <v>1.402842256060818</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1.401717221527769</v>
+        <v>1.401779409040484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B57" t="n">
-        <v>1.395515450260095</v>
+        <v>1.393890288838169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9967105263157895</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1.392479446896336</v>
+        <v>1.391129888986286</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1.390150917203803</v>
+        <v>1.389598022427475</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1.451154430707296</v>
+        <v>1.429382520809508</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9945175438596491</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1.392669778121145</v>
+        <v>1.389105769625881</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1.392181302371778</v>
+        <v>1.389411259115788</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1.395189776755216</v>
+        <v>1.403964546688816</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390162704283731</v>
+        <v>1.389436495931525</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1.393474145939476</v>
+        <v>1.395919115919816</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B66" t="n">
-        <v>1.417507437237522</v>
+        <v>1.426323213075337</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1.395890166884974</v>
+        <v>1.403193285590724</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9945175438596491</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392317765637448</v>
+        <v>1.392823047805251</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9945175438596491</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>1.39048309075205</v>
+        <v>1.389777170984368</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9945175438596491</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>1.391677958923474</v>
+        <v>1.39124576041573</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B71" t="n">
-        <v>1.41154524527098</v>
+        <v>1.419514409282751</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B72" t="n">
-        <v>1.393971692051804</v>
+        <v>1.392903288205465</v>
       </c>
     </row>
     <row r="73">
@@ -1018,15 +1018,15 @@
         <v>0.9989035087719298</v>
       </c>
       <c r="B73" t="n">
-        <v>1.445912413429796</v>
+        <v>1.435843444707101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9967105263157895</v>
       </c>
       <c r="B74" t="n">
-        <v>1.394253059437401</v>
+        <v>1.39597789655652</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1.398091272303932</v>
+        <v>1.394942427936353</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390229515862047</v>
+        <v>1.389508581998055</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1.39011381801806</v>
+        <v>1.390605437128167</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1.394749628870111</v>
+        <v>1.3945407783776</v>
       </c>
     </row>
     <row r="79">
@@ -1066,31 +1066,31 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>1.390741388003031</v>
+        <v>1.390908542432283</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>1.389655740637528</v>
+        <v>1.389475261955931</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>1.427616901565016</v>
+        <v>1.432995076765094</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B82" t="n">
-        <v>1.398031797325402</v>
+        <v>1.400311957325852</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>0.9989035087719298</v>
       </c>
       <c r="B83" t="n">
-        <v>1.39592268801572</v>
+        <v>1.39407728011148</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1.417085497002853</v>
+        <v>1.427602935255619</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>1.397475637887654</v>
+        <v>1.390487811021637</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1.418958873079534</v>
+        <v>1.405804770034656</v>
       </c>
     </row>
     <row r="87">
@@ -1130,15 +1130,15 @@
         <v>0.9923245614035088</v>
       </c>
       <c r="B87" t="n">
-        <v>1.400591521932368</v>
+        <v>1.394506582042627</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B88" t="n">
-        <v>1.423093285476952</v>
+        <v>1.450571137562133</v>
       </c>
     </row>
     <row r="89">
@@ -1146,15 +1146,15 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B89" t="n">
-        <v>1.396826785907411</v>
+        <v>1.395808498064677</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1.402554604045132</v>
+        <v>1.397100421420315</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B91" t="n">
-        <v>1.400392310661182</v>
+        <v>1.397438841953612</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39043594870651</v>
+        <v>1.389327689221031</v>
       </c>
     </row>
     <row r="93">
@@ -1178,15 +1178,15 @@
         <v>0.9956140350877193</v>
       </c>
       <c r="B93" t="n">
-        <v>1.396350848047357</v>
+        <v>1.393940710184867</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>1.396001786516424</v>
+        <v>1.390945804746528</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1.393127723744041</v>
+        <v>1.392049912820783</v>
       </c>
     </row>
     <row r="96">
@@ -1202,15 +1202,15 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1.3886896706464</v>
+        <v>1.388105998959458</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9956140350877193</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39121519264422</v>
+        <v>1.38922417372988</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1.392498735795941</v>
+        <v>1.400898318541677</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1.391685933397527</v>
+        <v>1.394778182632045</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1.415356096468474</v>
+        <v>1.392185334573712</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1.388438797833627</v>
+        <v>1.38957981477704</v>
       </c>
     </row>
   </sheetData>
